--- a/chats/5216182426621@c.us.xlsx
+++ b/chats/5216182426621@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -110,6 +110,192 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>08-12-2021 10:29</t>
+  </si>
+  <si>
+    <t>10-12-2021 08:38</t>
+  </si>
+  <si>
+    <t>10-12-2021 08:50</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10-12-2021 08:59</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:04</t>
+  </si>
+  <si>
+    <t>menh</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:05</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:06</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:07</t>
+  </si>
+  <si>
+    <t>Mebu</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:08</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:09</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:10</t>
+  </si>
+  <si>
+    <t>10-12-2021 09:24</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:38</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:39</t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:40</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:41</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:42</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:56</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:57</t>
+  </si>
+  <si>
+    <t>10-12-2021 10:59</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:00</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:02</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:04</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:05</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:06</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:07</t>
+  </si>
+  <si>
+    <t>enu</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:09</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:11</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:12</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:13</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:14</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:16</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:17</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:19</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:20</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:21</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:22</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:23</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:37</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:41</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:42</t>
+  </si>
+  <si>
+    <t>10-12-2021 11:43</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:04</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:05</t>
+  </si>
+  <si>
+    <t>hoal</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:06</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:07</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:09</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:16</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:17</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:18</t>
+  </si>
+  <si>
+    <t>11-12-2021 01:20</t>
   </si>
 </sst>
 </file>
@@ -486,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C318"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,6 +1308,2100 @@
         <v>32</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>51</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>59</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>59</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>60</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>60</v>
+      </c>
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>61</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>61</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>61</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>63</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>63</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>63</v>
+      </c>
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>64</v>
+      </c>
+      <c r="B183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>64</v>
+      </c>
+      <c r="B184" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>64</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>67</v>
+      </c>
+      <c r="B198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>67</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>67</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>67</v>
+      </c>
+      <c r="B202" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>67</v>
+      </c>
+      <c r="B203" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>67</v>
+      </c>
+      <c r="B204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>67</v>
+      </c>
+      <c r="B205" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>68</v>
+      </c>
+      <c r="B206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>68</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>69</v>
+      </c>
+      <c r="B209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>69</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>69</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>70</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>70</v>
+      </c>
+      <c r="B216" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>71</v>
+      </c>
+      <c r="B217" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>71</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>71</v>
+      </c>
+      <c r="B220" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>71</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>71</v>
+      </c>
+      <c r="B222" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>71</v>
+      </c>
+      <c r="B223" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>71</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>71</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>71</v>
+      </c>
+      <c r="B227" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>72</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>72</v>
+      </c>
+      <c r="B231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B232" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>73</v>
+      </c>
+      <c r="B233" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>74</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>74</v>
+      </c>
+      <c r="B236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>74</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>74</v>
+      </c>
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>74</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>74</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>74</v>
+      </c>
+      <c r="B241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>74</v>
+      </c>
+      <c r="B242" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>75</v>
+      </c>
+      <c r="B244" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>75</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>75</v>
+      </c>
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>75</v>
+      </c>
+      <c r="B249" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>75</v>
+      </c>
+      <c r="B250" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>75</v>
+      </c>
+      <c r="B252" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>75</v>
+      </c>
+      <c r="B253" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>79</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>79</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>79</v>
+      </c>
+      <c r="B258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>79</v>
+      </c>
+      <c r="B259" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>79</v>
+      </c>
+      <c r="B260" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>79</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>79</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>79</v>
+      </c>
+      <c r="B263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>79</v>
+      </c>
+      <c r="B264" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>80</v>
+      </c>
+      <c r="B265" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>80</v>
+      </c>
+      <c r="B266" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>80</v>
+      </c>
+      <c r="B267" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>80</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>80</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>80</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>80</v>
+      </c>
+      <c r="B271" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>81</v>
+      </c>
+      <c r="B272" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>81</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>81</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>81</v>
+      </c>
+      <c r="B275" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>81</v>
+      </c>
+      <c r="B276" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>82</v>
+      </c>
+      <c r="B277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>83</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>83</v>
+      </c>
+      <c r="B280" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>83</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>83</v>
+      </c>
+      <c r="B284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>84</v>
+      </c>
+      <c r="B285" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>85</v>
+      </c>
+      <c r="B286" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>85</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>85</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>85</v>
+      </c>
+      <c r="B289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>85</v>
+      </c>
+      <c r="B290" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>86</v>
+      </c>
+      <c r="B291" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>86</v>
+      </c>
+      <c r="B292" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>86</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>86</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>88</v>
+      </c>
+      <c r="B295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>88</v>
+      </c>
+      <c r="B296" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>89</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>89</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>89</v>
+      </c>
+      <c r="B300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>89</v>
+      </c>
+      <c r="B301" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>90</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>90</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>90</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>90</v>
+      </c>
+      <c r="B305" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>90</v>
+      </c>
+      <c r="B306" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>90</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>91</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>92</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>92</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>92</v>
+      </c>
+      <c r="B311" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>93</v>
+      </c>
+      <c r="B312" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>94</v>
+      </c>
+      <c r="B313" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>94</v>
+      </c>
+      <c r="B314" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>94</v>
+      </c>
+      <c r="B315" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>94</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>94</v>
+      </c>
+      <c r="B317" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>94</v>
+      </c>
+      <c r="B318" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
